--- a/outputs/metadata_elements_comparison_matrix.xlsx
+++ b/outputs/metadata_elements_comparison_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,139 +434,114 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Datasheet</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Data Nutrition Label</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Accountability Documentation</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Healthsheet</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Data Card</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Data Nutrition Label</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Accountability Documentation</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Datasheet</t>
-        </is>
+      <c r="A2" t="n">
+        <v>100</v>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>62.12121212121212</v>
       </c>
       <c r="C2" t="n">
+        <v>40.90909090909091</v>
+      </c>
+      <c r="D2" t="n">
         <v>98.48484848484848</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>37.87878787878788</v>
-      </c>
-      <c r="E2" t="n">
-        <v>62.12121212121212</v>
-      </c>
-      <c r="F2" t="n">
-        <v>40.90909090909091</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Healthsheet</t>
-        </is>
+      <c r="A3" t="n">
+        <v>60.56338028169014</v>
       </c>
       <c r="B3" t="n">
-        <v>77.17391304347827</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>43.66197183098591</v>
       </c>
       <c r="D3" t="n">
-        <v>33.69565217391305</v>
+        <v>67.6056338028169</v>
       </c>
       <c r="E3" t="n">
-        <v>51.08695652173913</v>
-      </c>
-      <c r="F3" t="n">
-        <v>36.95652173913043</v>
+        <v>36.61971830985916</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Data Card</t>
-        </is>
+      <c r="A4" t="n">
+        <v>32.91139240506329</v>
       </c>
       <c r="B4" t="n">
-        <v>32.7683615819209</v>
+        <v>29.11392405063291</v>
       </c>
       <c r="C4" t="n">
-        <v>35.02824858757062</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>40.50632911392405</v>
       </c>
       <c r="E4" t="n">
-        <v>27.68361581920904</v>
-      </c>
-      <c r="F4" t="n">
-        <v>28.8135593220339</v>
+        <v>31.64556962025317</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Data Nutrition Label</t>
-        </is>
+      <c r="A5" t="n">
+        <v>77.17391304347827</v>
       </c>
       <c r="B5" t="n">
-        <v>60.56338028169014</v>
+        <v>51.08695652173913</v>
       </c>
       <c r="C5" t="n">
-        <v>67.6056338028169</v>
+        <v>36.95652173913043</v>
       </c>
       <c r="D5" t="n">
-        <v>36.61971830985916</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>43.66197183098591</v>
+        <v>33.69565217391305</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Accountability Documentation</t>
-        </is>
+      <c r="A6" t="n">
+        <v>32.7683615819209</v>
       </c>
       <c r="B6" t="n">
-        <v>32.91139240506329</v>
+        <v>27.68361581920904</v>
       </c>
       <c r="C6" t="n">
-        <v>40.50632911392405</v>
+        <v>28.8135593220339</v>
       </c>
       <c r="D6" t="n">
-        <v>31.64556962025317</v>
+        <v>35.02824858757062</v>
       </c>
       <c r="E6" t="n">
-        <v>29.11392405063291</v>
-      </c>
-      <c r="F6" t="n">
         <v>100</v>
       </c>
     </row>

--- a/outputs/metadata_elements_comparison_matrix.xlsx
+++ b/outputs/metadata_elements_comparison_matrix.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Data Nutrition Label</t>
+          <t>Dataset Nutrition Label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/outputs/metadata_elements_comparison_matrix.xlsx
+++ b/outputs/metadata_elements_comparison_matrix.xlsx
@@ -536,7 +536,7 @@
         <v>27.68361581920904</v>
       </c>
       <c r="C6" t="n">
-        <v>28.8135593220339</v>
+        <v>29.37853107344633</v>
       </c>
       <c r="D6" t="n">
         <v>35.02824858757062</v>

--- a/outputs/metadata_elements_comparison_matrix.xlsx
+++ b/outputs/metadata_elements_comparison_matrix.xlsx
@@ -465,81 +465,81 @@
         <v>100</v>
       </c>
       <c r="B2" t="n">
-        <v>62.12121212121212</v>
+        <v>48.93617021276596</v>
       </c>
       <c r="C2" t="n">
-        <v>40.90909090909091</v>
+        <v>36.17021276595745</v>
       </c>
       <c r="D2" t="n">
-        <v>98.48484848484848</v>
+        <v>97.87234042553192</v>
       </c>
       <c r="E2" t="n">
-        <v>37.87878787878788</v>
+        <v>29.78723404255319</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>60.56338028169014</v>
+        <v>53.48837209302325</v>
       </c>
       <c r="B3" t="n">
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>43.66197183098591</v>
+        <v>37.2093023255814</v>
       </c>
       <c r="D3" t="n">
-        <v>67.6056338028169</v>
+        <v>62.7906976744186</v>
       </c>
       <c r="E3" t="n">
-        <v>36.61971830985916</v>
+        <v>30.23255813953488</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>32.91139240506329</v>
+        <v>34.69387755102041</v>
       </c>
       <c r="B4" t="n">
-        <v>29.11392405063291</v>
+        <v>32.6530612244898</v>
       </c>
       <c r="C4" t="n">
         <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>40.50632911392405</v>
+        <v>44.89795918367347</v>
       </c>
       <c r="E4" t="n">
-        <v>31.64556962025317</v>
+        <v>36.73469387755102</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>77.17391304347827</v>
+        <v>68.65671641791045</v>
       </c>
       <c r="B5" t="n">
-        <v>51.08695652173913</v>
+        <v>40.29850746268657</v>
       </c>
       <c r="C5" t="n">
-        <v>36.95652173913043</v>
+        <v>32.83582089552239</v>
       </c>
       <c r="D5" t="n">
         <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>33.69565217391305</v>
+        <v>26.86567164179105</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>32.7683615819209</v>
+        <v>26.41509433962264</v>
       </c>
       <c r="B6" t="n">
-        <v>27.68361581920904</v>
+        <v>24.52830188679245</v>
       </c>
       <c r="C6" t="n">
-        <v>29.37853107344633</v>
+        <v>33.9622641509434</v>
       </c>
       <c r="D6" t="n">
-        <v>35.02824858757062</v>
+        <v>33.9622641509434</v>
       </c>
       <c r="E6" t="n">
         <v>100</v>
